--- a/Jibei_Railway/Structures/StationName/編集用.xlsx
+++ b/Jibei_Railway/Structures/StationName/編集用.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\33752\Documents\BveTs\Scenarios_Work\Jibei_Railway\Structures\StationName\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF1C9E4-85CC-4F5B-915B-69A40AE2973E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF69D85-CCB9-4EF5-B4C3-124EB2C654D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{DE6CD4EC-68BC-496D-9896-0F41ECF51F3E}"/>
   </bookViews>
@@ -44,10 +44,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
+    <t>济北本线</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+      </rPr>
+      <t>Jibei Main Line</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>李府井·济北机场方向</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>现在时刻</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新大学城</t>
+    <rPh sb="0" eb="3">
+      <t>ゴジョウガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新大学城</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Xin Da Xue Cheng</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color indexed="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JM</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color indexed="9"/>
+        <rFont val="小塚ゴシック Pr6N B"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color indexed="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color indexed="9"/>
+        <rFont val="小塚ゴシック Pr6N B"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="16"/>
         <color indexed="9"/>
         <rFont val="等线"/>
@@ -58,6 +159,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="16"/>
         <color indexed="9"/>
         <rFont val="小塚ゴシック Pr6N R"/>
@@ -68,6 +170,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="16"/>
         <color indexed="9"/>
         <rFont val="等线"/>
@@ -78,6 +181,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="16"/>
         <color indexed="9"/>
         <rFont val="小塚ゴシック Pr6N R"/>
@@ -95,82 +199,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>創新大道</t>
+    <t>　Ziweijiedao</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>创新大道</t>
-    <rPh sb="0" eb="3">
-      <t>ゴジョウガワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Chuang Xin Da Dao</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
+    <r>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="20"/>
-        <color indexed="9"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>JM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color indexed="9"/>
-        <rFont val="小塚ゴシック Pr6N B"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color indexed="9"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>33</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color indexed="9"/>
-        <rFont val="小塚ゴシック Pr6N B"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
         <sz val="14"/>
         <color indexed="9"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>世博园</t>
+      <t>紫薇街道</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <color indexed="9"/>
         <rFont val="小塚ゴシック Pr6N R"/>
@@ -181,6 +230,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <color indexed="9"/>
         <rFont val="等线"/>
@@ -191,6 +241,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <color indexed="9"/>
         <rFont val="小塚ゴシック Pr6N R"/>
@@ -201,16 +252,18 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <color indexed="9"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>32</t>
+      <t>30</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <color indexed="9"/>
         <rFont val="小塚ゴシック Pr6N R"/>
@@ -222,12 +275,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> Gongyeyanjiuyuan</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="等线"/>
@@ -238,6 +288,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <color indexed="9"/>
         <rFont val="小塚ゴシック Pr6N R"/>
@@ -248,6 +299,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <color indexed="9"/>
         <rFont val="等线"/>
@@ -258,6 +310,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <color indexed="9"/>
         <rFont val="小塚ゴシック Pr6N R"/>
@@ -268,16 +321,18 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>4</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
         <color indexed="9"/>
         <rFont val="小塚ゴシック Pr6N R"/>
@@ -288,61 +343,19 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="14"/>
-        <color indexed="9"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="等线"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>工业研究院</t>
+      <t>世博园</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　Shiboyuan</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>济北本线</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-      </rPr>
-      <t>Jibei Main Line</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>李府井·济北机场方向</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>For Lifujing &amp; Jibei Airport</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>现在时刻</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>工业研究院方向</t>
+    <t xml:space="preserve"> Shiboyuan</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -358,7 +371,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>Gongyeyanjiuyuan</t>
+      <t>Lifujing &amp; Jibei Airport</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -367,7 +380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -395,27 +408,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color indexed="9"/>
-      <name val="小塚ゴシック Pr6N B"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="9"/>
-      <name val="小塚ゴシック Pr6N R"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color indexed="9"/>
-      <name val="小塚ゴシック Pr6N R"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color indexed="9"/>
       <name val="小塚ゴシック Pr6N R"/>
@@ -430,74 +422,11 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="小塚ゴシック Pr6N R"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color indexed="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color indexed="9"/>
-      <name val="小塚ゴシック Pr6N R"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color indexed="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="小塚ゴシック Pr6N R"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="48"/>
       <color rgb="FFFFFFFF"/>
       <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="9"/>
-      <name val="小塚ゴシック Pr6N R"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="小塚ゴシック Pr6N R"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="60"/>
@@ -565,17 +494,122 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="0"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color indexed="9"/>
+      <name val="小塚ゴシック Pr6N B"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color indexed="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="9"/>
+      <name val="小塚ゴシック Pr6N R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="9"/>
+      <name val="小塚ゴシック Pr6N R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="小塚ゴシック Pr6N R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="9"/>
+      <name val="小塚ゴシック Pr6N R"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="小塚ゴシック Pr6N R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="小塚ゴシック Pr6N R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="9"/>
+      <name val="小塚ゴシック Pr6N R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -712,14 +746,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -728,110 +762,113 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -945,6 +982,128 @@
         <a:xfrm>
           <a:off x="1" y="4566477"/>
           <a:ext cx="4878000" cy="1220400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>478551</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8697CA6E-31B5-9FF2-5355-C14612AEFF1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5124174" y="3075609"/>
+          <a:ext cx="4951160" cy="1242391"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485913</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>84674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E99C9893-40AC-3A51-733F-77CBFECAFF5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5124174" y="4566478"/>
+          <a:ext cx="4958522" cy="1244239"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1294,6 +1453,128 @@
         <a:xfrm>
           <a:off x="0" y="4972050"/>
           <a:ext cx="4000500" cy="2235200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{275ADDC4-8116-C17D-CA03-D85F399531B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7543800"/>
+          <a:ext cx="8991600" cy="2235200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE0AB99-844F-0847-689D-2C34046942DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9944100"/>
+          <a:ext cx="8991600" cy="2235200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1699,7 +1980,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1732,7 +2013,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
@@ -1758,8 +2039,8 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="5" t="s">
-        <v>4</v>
+      <c r="N3" s="18" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
@@ -1779,44 +2060,44 @@
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A5" s="24" t="s">
-        <v>3</v>
+      <c r="A5" s="23" t="s">
+        <v>6</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" customHeight="1">
       <c r="A6" s="23" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="20.25" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -1834,20 +2115,20 @@
     </row>
     <row r="8" spans="1:14" s="2" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
@@ -1856,34 +2137,34 @@
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
     </row>
     <row r="10" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="20" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
@@ -1912,366 +2193,366 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF78DA62-F086-4E94-AE36-F8701B11A0B0}">
   <dimension ref="A15:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:J42"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X48" sqref="X48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="4.90625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="9"/>
-    <col min="4" max="4" width="9.1796875" style="9" customWidth="1"/>
-    <col min="5" max="6" width="4.90625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="9"/>
-    <col min="8" max="8" width="4.26953125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="5.26953125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="1.1796875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="7" style="9" customWidth="1"/>
-    <col min="12" max="12" width="7.1796875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="1" style="9" customWidth="1"/>
-    <col min="14" max="15" width="4.90625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="9.1796875" style="9"/>
-    <col min="17" max="18" width="4.90625" style="9" customWidth="1"/>
-    <col min="19" max="20" width="9.1796875" style="9"/>
-    <col min="21" max="21" width="4.6328125" style="9" customWidth="1"/>
-    <col min="22" max="22" width="4.453125" style="9" customWidth="1"/>
-    <col min="23" max="16384" width="9.1796875" style="9"/>
+    <col min="1" max="1" width="4.1796875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.90625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="8"/>
+    <col min="4" max="4" width="9.1796875" style="8" customWidth="1"/>
+    <col min="5" max="6" width="4.90625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="8"/>
+    <col min="8" max="8" width="4.26953125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="5.26953125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="1.1796875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="7" style="8" customWidth="1"/>
+    <col min="12" max="12" width="7.1796875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="1" style="8" customWidth="1"/>
+    <col min="14" max="15" width="4.90625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" style="8"/>
+    <col min="17" max="18" width="4.90625" style="8" customWidth="1"/>
+    <col min="19" max="20" width="9.1796875" style="8"/>
+    <col min="21" max="21" width="4.6328125" style="8" customWidth="1"/>
+    <col min="22" max="22" width="4.453125" style="8" customWidth="1"/>
+    <col min="23" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A15" s="39">
+      <c r="A15" s="28">
+        <v>4</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="39"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="35"/>
+      <c r="U15" s="28">
+        <v>3</v>
+      </c>
+      <c r="V15" s="28"/>
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+    </row>
+    <row r="17" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="33" t="s">
+      <c r="D17" s="37"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="28" t="s">
-        <v>11</v>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="31" t="s">
+        <v>13</v>
       </c>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T15" s="36"/>
-      <c r="U15" s="39">
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="V15" s="39"/>
-    </row>
-    <row r="16" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-    </row>
-    <row r="17" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="T17" s="37"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
     </row>
     <row r="18" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
     </row>
     <row r="19" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
     </row>
     <row r="20" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="7"/>
     </row>
     <row r="21" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="8"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="7"/>
     </row>
     <row r="22" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="7"/>
     </row>
     <row r="23" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="8"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="7"/>
     </row>
     <row r="24" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="8"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="7"/>
     </row>
     <row r="25" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="8"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="7"/>
     </row>
     <row r="26" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="8"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="7"/>
     </row>
     <row r="27" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Jibei_Railway/Structures/StationName/編集用.xlsx
+++ b/Jibei_Railway/Structures/StationName/編集用.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\33752\Documents\BveTs\Scenarios_Work\Jibei_Railway\Structures\StationName\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF69D85-CCB9-4EF5-B4C3-124EB2C654D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38D15FD-240B-4E41-A1DB-79B869EF91E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{DE6CD4EC-68BC-496D-9896-0F41ECF51F3E}"/>
+    <workbookView xWindow="3200" yWindow="1990" windowWidth="19200" windowHeight="9970" xr2:uid="{DE6CD4EC-68BC-496D-9896-0F41ECF51F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,56 +81,122 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新大学城</t>
+    <r>
+      <t xml:space="preserve">For </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Lifujing &amp; Jibei Airport</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>济</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="9"/>
+        <rFont val="小塚ゴシック Pr6N R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>北本</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="9"/>
+        <rFont val="小塚ゴシック Pr6N R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　Jibei Main</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="小塚ゴシック Pr6N R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="9"/>
+        <rFont val="小塚ゴシック Pr6N R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ine</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カナヤマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>王符河</t>
     <rPh sb="0" eb="3">
       <t>ゴジョウガワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新大学城</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Xin Da Xue Cheng</t>
+    <t>Wang Fu He</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
-      <t>[</t>
+      <t>[JM-2</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="20"/>
-        <color indexed="9"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>JM</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color indexed="9"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="小塚ゴシック Pr6N B"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color indexed="9"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>31</t>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -146,60 +212,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color indexed="9"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>济北本线</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color indexed="9"/>
-        <rFont val="小塚ゴシック Pr6N R"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　Jibei</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color indexed="9"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color indexed="9"/>
-        <rFont val="小塚ゴシック Pr6N R"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Main line</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>カナヤマ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>セン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　Ziweijiedao</t>
+    <t>王符河</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -210,12 +223,34 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color indexed="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="小塚ゴシック Pr6N R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>新</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="等线"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>紫薇街道</t>
+      <t>赵营</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="小塚ゴシック Pr6N R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>子</t>
     </r>
     <r>
       <rPr>
@@ -226,40 +261,18 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>[</t>
+      <t>[JM-</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="14"/>
-        <color indexed="9"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>JM</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="9"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="小塚ゴシック Pr6N R"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="9"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>30</t>
+      <t>29</t>
     </r>
     <r>
       <rPr>
@@ -276,13 +289,30 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Xinzhaoyingzi</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="14"/>
         <color rgb="FFFFFFFF"/>
-        <rFont val="等线"/>
+        <rFont val="小塚ゴシック Pr6N R"/>
         <family val="2"/>
-        <charset val="134"/>
+        <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -295,18 +325,18 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>[</t>
+      <t>[JM-</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="14"/>
-        <color indexed="9"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="小塚ゴシック Pr6N R"/>
+        <family val="2"/>
+        <charset val="128"/>
       </rPr>
-      <t>JM</t>
+      <t>27</t>
     </r>
     <r>
       <rPr>
@@ -317,62 +347,23 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>-3</t>
+      <t>][JF-01]</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="14"/>
         <color rgb="FFFFFFFF"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="9"/>
         <rFont val="小塚ゴシック Pr6N R"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>世博园</t>
+      <t>李府井</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> Shiboyuan</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">For </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Lifujing &amp; Jibei Airport</t>
-    </r>
+    <t xml:space="preserve"> Lifujing </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -380,7 +371,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -420,13 +411,6 @@
       <name val="小塚ゴシック Pr6N R"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="48"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="60"/>
@@ -511,14 +495,6 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
-      <color indexed="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color indexed="9"/>
       <name val="小塚ゴシック Pr6N R"/>
@@ -543,27 +519,11 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color indexed="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="小塚ゴシック Pr6N R"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="9"/>
-      <name val="小塚ゴシック Pr6N R"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -612,6 +572,46 @@
       <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="小塚ゴシック Pr6N R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="小塚ゴシック Pr6N R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="小塚ゴシック Pr6N B"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="7">
@@ -746,7 +746,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,107 +768,110 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1104,6 +1107,372 @@
         <a:xfrm>
           <a:off x="5124174" y="4566478"/>
           <a:ext cx="4958522" cy="1244239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>369957</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>60146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4950F6-69F1-A280-25C2-4588636597A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6057348"/>
+          <a:ext cx="4853609" cy="1219711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>456544</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>77304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6AD514-FA7B-0021-97D3-7B903F826F35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5124174" y="6057348"/>
+          <a:ext cx="4929153" cy="1236869"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>364435</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>58760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94AC0741-73A5-4E05-4196-556A0A3349CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7382566"/>
+          <a:ext cx="4848087" cy="1218324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>430695</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>70818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A240772-FBC5-E8ED-C11C-D022EBF484DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5124174" y="7382565"/>
+          <a:ext cx="4903304" cy="1230383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>372314</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>60739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16FFF03B-DFF9-3F03-4F5A-796557E3BF3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8707783"/>
+          <a:ext cx="4855966" cy="1220304"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419652</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>68047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B593820-2D26-AE14-17A9-16EB84210AAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5124174" y="8707783"/>
+          <a:ext cx="4892261" cy="1227612"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1979,8 +2348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C45CCD5-3E6B-42CC-BACB-505396A89B7C}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2012,14 +2381,14 @@
       <c r="D2" s="25" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>4</v>
+      <c r="E2" s="40" t="s">
+        <v>6</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -2030,17 +2399,17 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="25"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
@@ -2048,12 +2417,12 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="25"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -2061,7 +2430,7 @@
     </row>
     <row r="5" spans="1:14" ht="20.25" customHeight="1">
       <c r="A5" s="23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -2079,7 +2448,7 @@
     </row>
     <row r="6" spans="1:14" ht="20.25" customHeight="1">
       <c r="A6" s="23" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -2096,22 +2465,22 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A7" s="21" t="s">
-        <v>8</v>
+      <c r="A7" s="22" t="s">
+        <v>5</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:14" s="2" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="27" t="s">
@@ -2128,7 +2497,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
@@ -2150,11 +2519,11 @@
       <c r="N9" s="26"/>
     </row>
     <row r="10" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="19" t="s">
-        <v>9</v>
+      <c r="A10" s="41" t="s">
+        <v>11</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2163,11 +2532,11 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="20" t="s">
-        <v>12</v>
+      <c r="L10" s="21" t="s">
+        <v>13</v>
       </c>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2193,7 +2562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF78DA62-F086-4E94-AE36-F8701B11A0B0}">
   <dimension ref="A15:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X48" sqref="X48"/>
     </sheetView>
   </sheetViews>
@@ -2225,10 +2594,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="28"/>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="9"/>
       <c r="F15" s="29" t="s">
         <v>2</v>
@@ -2237,10 +2606,10 @@
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="39"/>
+      <c r="L15" s="34"/>
       <c r="M15" s="11"/>
       <c r="N15" s="29" t="s">
         <v>2</v>
@@ -2249,10 +2618,10 @@
       <c r="P15" s="29"/>
       <c r="Q15" s="30"/>
       <c r="R15" s="9"/>
-      <c r="S15" s="35" t="s">
+      <c r="S15" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="T15" s="35"/>
+      <c r="T15" s="37"/>
       <c r="U15" s="28">
         <v>3</v>
       </c>
@@ -2261,37 +2630,37 @@
     <row r="16" spans="1:22" ht="13.5" customHeight="1">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="9"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
       <c r="M16" s="13"/>
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
       <c r="Q16" s="30"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
       <c r="U16" s="28"/>
       <c r="V16" s="28"/>
     </row>
     <row r="17" spans="1:22" ht="13.5" customHeight="1">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="37"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="9"/>
       <c r="F17" s="31" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
@@ -2301,16 +2670,16 @@
       <c r="L17" s="16"/>
       <c r="M17" s="13"/>
       <c r="N17" s="31" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O17" s="32"/>
       <c r="P17" s="32"/>
       <c r="Q17" s="33"/>
       <c r="R17" s="9"/>
-      <c r="S17" s="36" t="s">
+      <c r="S17" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="T17" s="36"/>
+      <c r="T17" s="38"/>
       <c r="U17" s="28"/>
       <c r="V17" s="28"/>
     </row>
@@ -2333,8 +2702,8 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="33"/>
       <c r="R18" s="9"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
       <c r="U18" s="28"/>
       <c r="V18" s="28"/>
     </row>

--- a/Jibei_Railway/Structures/StationName/編集用.xlsx
+++ b/Jibei_Railway/Structures/StationName/編集用.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\33752\Documents\BveTs\Scenarios_Work\Jibei_Railway\Structures\StationName\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38D15FD-240B-4E41-A1DB-79B869EF91E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E06B6E1-24F0-4E5D-94DD-75329791F913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="1990" windowWidth="19200" windowHeight="9970" xr2:uid="{DE6CD4EC-68BC-496D-9896-0F41ECF51F3E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{DE6CD4EC-68BC-496D-9896-0F41ECF51F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>济北本线</t>
     <phoneticPr fontId="1"/>
@@ -98,94 +98,72 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>普通</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>快速</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特快</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="16"/>
-        <color indexed="9"/>
+        <sz val="20"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>济</t>
+      <t xml:space="preserve">   </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="16"/>
-        <color indexed="9"/>
-        <rFont val="小塚ゴシック Pr6N R"/>
-        <family val="2"/>
-        <charset val="128"/>
+        <sz val="20"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
       </rPr>
-      <t>北本</t>
+      <t>E</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="16"/>
-        <color indexed="9"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
       </rPr>
-      <t>线</t>
+      <t>✈快</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color indexed="9"/>
-        <rFont val="小塚ゴシック Pr6N R"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　Jibei Main</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="小塚ゴシック Pr6N R"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> L</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color indexed="9"/>
-        <rFont val="小塚ゴシック Pr6N R"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ine</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>カナヤマ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>セン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>王符河</t>
+    <t>李府井</t>
     <rPh sb="0" eb="3">
       <t>ゴジョウガワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Wang Fu He</t>
+    <t>李府井</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Li Fu Jing</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
-      <t>[JM-2</t>
+      <t>[JM-</t>
     </r>
     <r>
       <rPr>
@@ -196,7 +174,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>8</t>
+      <t>27</t>
     </r>
     <r>
       <rPr>
@@ -212,7 +190,136 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>王符河</t>
+    <r>
+      <t>[J</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="小塚ゴシック Pr6N B"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color indexed="9"/>
+        <rFont val="小塚ゴシック Pr6N B"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="小塚ゴシック Pr6N B"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color indexed="9"/>
+        <rFont val="小塚ゴシック Pr6N B"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wangfuhe </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>济</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="小塚ゴシック Pr6N R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>北本</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="小塚ゴシック Pr6N R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　Jibei Main Line</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>方特</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="小塚ゴシック Pr6N R"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　Fangte Line</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Xiaoyangzhuang</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -228,7 +335,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>新</t>
+      <t>小</t>
     </r>
     <r>
       <rPr>
@@ -239,7 +346,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>赵营</t>
+      <t>杨</t>
     </r>
     <r>
       <rPr>
@@ -250,7 +357,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>子</t>
+      <t>庄</t>
     </r>
     <r>
       <rPr>
@@ -261,7 +368,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>[JM-</t>
+      <t>[</t>
     </r>
     <r>
       <rPr>
@@ -272,7 +379,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>29</t>
+      <t>JF-02</t>
     </r>
     <r>
       <rPr>
@@ -284,23 +391,6 @@
         <charset val="128"/>
       </rPr>
       <t>]</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Xinzhaoyingzi</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -325,7 +415,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>[JM-</t>
+      <t>[J</t>
     </r>
     <r>
       <rPr>
@@ -336,7 +426,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>27</t>
+      <t>M-28</t>
     </r>
     <r>
       <rPr>
@@ -347,7 +437,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>][JF-01]</t>
+      <t>]</t>
     </r>
     <r>
       <rPr>
@@ -358,12 +448,8 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>李府井</t>
+      <t>王符河</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lifujing </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -371,7 +457,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -495,22 +581,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color indexed="9"/>
-      <name val="小塚ゴシック Pr6N R"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color indexed="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color indexed="9"/>
       <name val="小塚ゴシック Pr6N R"/>
@@ -599,22 +669,62 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="20"/>
       <color rgb="FFFFFFFF"/>
       <name val="小塚ゴシック Pr6N B"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,8 +761,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -740,13 +886,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -801,34 +988,52 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -849,10 +1054,10 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -867,11 +1072,23 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1491,6 +1708,250 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>369956</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>60146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D7968D-489B-B73F-FFA3-127A8CED48C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="10033000"/>
+          <a:ext cx="4853608" cy="1219711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419652</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>68047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68BDC05E-8140-A971-7306-51CA3D494AE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5124174" y="10033000"/>
+          <a:ext cx="4892261" cy="1227612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>353391</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>55983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75AB53E3-5ECE-93DF-CC7C-34BD88D1C8C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11358217"/>
+          <a:ext cx="4837043" cy="1215549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419652</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>68047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B1D3441-3A8B-03A4-11B1-FF1BE71FFF92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5124174" y="11358218"/>
+          <a:ext cx="4892261" cy="1227612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1944,6 +2405,122 @@
         <a:xfrm>
           <a:off x="0" y="9944100"/>
           <a:ext cx="8991600" cy="2235200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70902176-055A-C80D-17D0-E71196DF4327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1219200" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B96EEA-A225-5AFE-0156-84E94F9703A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3651250" y="0"/>
+          <a:ext cx="1225550" cy="2451100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2348,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C45CCD5-3E6B-42CC-BACB-505396A89B7C}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T69" sqref="T69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2378,17 +2955,17 @@
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="25" t="e" vm="1">
+      <c r="D2" s="31" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>6</v>
+      <c r="E2" s="28" t="s">
+        <v>10</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -2398,96 +2975,100 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="18" t="s">
-        <v>8</v>
+      <c r="D3" s="31"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="49" t="s">
+        <v>14</v>
       </c>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="50"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A5" s="23" t="s">
-        <v>7</v>
+      <c r="A5" s="29" t="s">
+        <v>12</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A6" s="23" t="s">
-        <v>9</v>
+      <c r="A6" s="29" t="s">
+        <v>11</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
     </row>
     <row r="7" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A7" s="22" t="s">
-        <v>5</v>
+      <c r="A7" s="48" t="s">
+        <v>17</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
     </row>
     <row r="8" spans="1:14" s="2" customFormat="1" ht="12" customHeight="1">
-      <c r="A8" s="27" t="s">
-        <v>10</v>
+      <c r="A8" s="33" t="s">
+        <v>19</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="6"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2496,16 +3077,16 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="26" t="s">
-        <v>12</v>
+      <c r="L8" s="32" t="s">
+        <v>20</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
     </row>
     <row r="9" spans="1:14" s="2" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="6"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -2514,16 +3095,16 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
     </row>
     <row r="10" spans="1:14" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="41" t="s">
-        <v>11</v>
+      <c r="A10" s="25" t="s">
+        <v>18</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2532,23 +3113,26 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="21" t="s">
-        <v>13</v>
+      <c r="L10" s="27" t="s">
+        <v>15</v>
       </c>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="L10:N10"/>
-    <mergeCell ref="A7:N7"/>
     <mergeCell ref="E2:J4"/>
     <mergeCell ref="A6:N6"/>
     <mergeCell ref="A5:N5"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="L8:N9"/>
     <mergeCell ref="A8:C9"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -2590,126 +3174,126 @@
   </cols>
   <sheetData>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A15" s="28">
+      <c r="A15" s="34">
         <v>4</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="36" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="30"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="34" t="s">
+      <c r="K15" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="34"/>
+      <c r="L15" s="40"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="29" t="s">
+      <c r="N15" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="30"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="36"/>
       <c r="R15" s="9"/>
-      <c r="S15" s="37" t="s">
+      <c r="S15" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="T15" s="37"/>
-      <c r="U15" s="28">
+      <c r="T15" s="43"/>
+      <c r="U15" s="34">
         <v>3</v>
       </c>
-      <c r="V15" s="28"/>
+      <c r="V15" s="34"/>
     </row>
     <row r="16" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
       <c r="M16" s="13"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="30"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="36"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
     </row>
     <row r="17" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="39" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="12"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="13"/>
-      <c r="N17" s="31" t="s">
+      <c r="N17" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="33"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="39"/>
       <c r="R17" s="9"/>
-      <c r="S17" s="38" t="s">
+      <c r="S17" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="T17" s="38"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
     </row>
     <row r="18" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="12"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="13"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="33"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="39"/>
       <c r="R18" s="9"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
     </row>
     <row r="19" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="9"/>
@@ -2728,8 +3312,8 @@
       <c r="R19" s="9"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
     </row>
     <row r="20" spans="1:22" ht="13.5" customHeight="1">
       <c r="A20" s="7"/>
@@ -2947,14 +3531,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30243FE-D050-4785-94FF-AF91F74D0508}">
-  <dimension ref="A1"/>
+  <dimension ref="D1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:5" ht="38.5" customHeight="1">
+      <c r="D1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="46">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="4:5" ht="38.5" customHeight="1">
+      <c r="D2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="47"/>
+    </row>
+    <row r="3" spans="4:5" ht="38.5" customHeight="1">
+      <c r="D3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="24">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" ht="38.5" customHeight="1">
+      <c r="D4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="24">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" ht="38.5" customHeight="1">
+      <c r="D5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="24">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>